--- a/docs/images/Input Examples file .xlsx
+++ b/docs/images/Input Examples file .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BACF74-B6AB-4230-B98E-DC0D431D5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D08FBA9-E9C6-401C-9814-6CAAF499B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -9775,8 +9775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1C0BE-05A2-4019-AFEF-2E973D591C06}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10040,7 +10040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAA3B2D-323A-4E73-A1D8-20F80F982226}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
